--- a/Administratif/Répartition_heures.xlsx
+++ b/Administratif/Répartition_heures.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18708" windowHeight="8736"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,6 +439,374 @@
         </r>
       </text>
     </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Recherche de sujet(1,5h)
+discussion(1,5h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:
+modification CC(2h)
+nouvelle idée sujet(3h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+recherche conception(3h)
+Gantt ( 2h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+conception des points avec coordonne avec carte (4h)
+mise en place des classes java (1h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+analyse des tuiles avec coordonnées (3h)
+ecriture de code(2h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+travail sur les pins 
+et leur apparition sur la carte (5h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ajout de la carte avec foonctionnalite et tests (7h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+aide la resolution probleme interface graphique et carte (6h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+travail sur le dossier (7h)
+detail de toutes etapes faites pour la carte</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+relecture code et amélioration ( 5h)
+aide aux autres ( 2h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+lecture dossier (2h)
+relecture autres parties code (3h)
+tests sur l'app (2h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tests finaux sur l'application (5h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4h discussion 
+1h de travail de recherche</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+travail sur la presentation 5h</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -467,9 +835,6 @@
     <t>Développeur 5</t>
   </si>
   <si>
-    <t>Développeur 6</t>
-  </si>
-  <si>
     <t>90 heures de travail par développeur sur l'ensemble des 16 semaines</t>
   </si>
   <si>
@@ -548,14 +913,17 @@
     <t>Zanone Jérémie</t>
   </si>
   <si>
-    <t>Groupe JE sais pas</t>
+    <t>Myszkorowski</t>
+  </si>
+  <si>
+    <t>Groupe 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +953,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -976,7 +1351,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1005,60 +1380,60 @@
     <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>2.5</v>
@@ -1223,102 +1598,132 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="J10" s="1">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="L10" s="1">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5</v>
+      </c>
       <c r="R10" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(B5:B10)</f>
-        <v>30.5</v>
+        <v>27.5</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11:Q11" si="1">SUM(C5:C10)</f>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R11" s="12">
         <f>SUM(R5:R10)</f>
-        <v>118</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1326,15 +1731,15 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1352,25 +1757,25 @@
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Administratif/Répartition_heures.xlsx
+++ b/Administratif/Répartition_heures.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18708" windowHeight="8736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,6 +439,135 @@
         </r>
       </text>
     </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Analyse du projet
+Mise en place
+Rapport</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Création de la base de données
+Rapport</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Code de liaison entre la base de données et le programme Java
+Intégration au projet
+Tests
+Rapport</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Intégration au projet
+Ajout des fonctionnalité supplémentaires
+Correction des problèmes
+Rapport</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Présentation</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -455,9 +584,6 @@
     <t>33h / 6 = 5.5h de travail par semaine et par développeur</t>
   </si>
   <si>
-    <t>Développeur 2</t>
-  </si>
-  <si>
     <t>Développeur 3</t>
   </si>
   <si>
@@ -549,13 +675,16 @@
   </si>
   <si>
     <t>Groupe JE sais pas</t>
+  </si>
+  <si>
+    <t>Loan Lassalle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +714,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -976,89 +1112,89 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="7" customWidth="1"/>
-    <col min="2" max="17" width="5.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="7" customWidth="1"/>
+    <col min="2" max="17" width="5.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>2.5</v>
@@ -1113,36 +1249,66 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="Q6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
       <c r="R6" s="4">
         <f t="shared" ref="R6:R10" si="0">SUM(B6:Q6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1167,9 +1333,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -1194,9 +1360,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
@@ -1221,9 +1387,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
@@ -1248,129 +1414,129 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(B5:B10)</f>
-        <v>30.5</v>
+        <v>28.5</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11:Q11" si="1">SUM(C5:C10)</f>
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R11" s="12">
         <f>SUM(R5:R10)</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Administratif/Répartition_heures.xlsx
+++ b/Administratif/Répartition_heures.xlsx
@@ -2,17 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateurs\Lassalle Loan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8250" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -21,6 +26,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author/>
     <author>Auteur</author>
   </authors>
   <commentList>
@@ -30,21 +36,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 1,5h discussion projet
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- 1,5h discussion projet
 - 1h début CC</t>
         </r>
       </text>
@@ -55,21 +63,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-- 1,5h CC (keylogger)
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- 1,5h CC (keylogger)
 - 2h génération de nouvelles idées, brainstorming
 - 2h CC (SmartCity) et recherche</t>
         </r>
@@ -81,21 +91,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 3,5h CC (rendu)
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- 3,5h CC (rendu)
 - 2h analyse conception carte JAVA</t>
         </r>
       </text>
@@ -106,21 +118,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 1,5h discussion conception avec collaborateur direct
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- 1,5h discussion conception avec collaborateur direct
 - 1h planning
 - 4h lancement du code de la carte, mise au point de Point sur la carte</t>
         </r>
@@ -132,21 +146,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 5,5h carte en tuile</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- 5,5h carte en tuile</t>
         </r>
       </text>
     </comment>
@@ -156,21 +172,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 5,5h  creation de l'interface graphique de la carte</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- 5,5h  creation de l'interface graphique de la carte</t>
         </r>
       </text>
     </comment>
@@ -180,21 +198,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 5,5h ajouter un rond (pins) de couleur sur la carte</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- 5,5h ajouter un rond (pins) de couleur sur la carte</t>
         </r>
       </text>
     </comment>
@@ -204,21 +224,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 5,5h avancer le code 
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">- 5,5h avancer le code 
 pour la discussion sur l'état d'avancement </t>
         </r>
       </text>
@@ -229,9 +251,10 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Zanone Jérémie:
 -</t>
@@ -239,9 +262,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> 6h ajout d'interaction sur la carte</t>
         </r>
@@ -253,9 +277,10 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Zanone Jérémie:
 </t>
@@ -263,9 +288,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>- 5h apprendre PHP JAVA</t>
         </r>
@@ -277,21 +303,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
--7h linker BDD avec la carte</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>-7h linker BDD avec la carte</t>
         </r>
       </text>
     </comment>
@@ -301,9 +329,10 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Zanone Jérémie:
 -</t>
@@ -311,9 +340,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> 5h relecture est amélioration du code
 - 3h début de l'ajout de la carte au reste du programme
@@ -327,21 +357,23 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 5h poursuivre la PLS
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- 5h poursuivre la PLS
 - 3h aide aux collaborateurs</t>
         </r>
       </text>
@@ -352,9 +384,10 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Zanone Jérémie:
 -</t>
@@ -362,68 +395,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 2h finir ajout carte au reste du programme</t>
-        </r>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 2h finir ajout carte au reste du programme
+- 2h relire, orthographe rapport
+- 1h acheter des CD vierge et graver le projet </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0">
+      <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- 2h relire, orthographe rapport
-- 1h acheter des CD vierge et graver le projet </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Zanone Jérémie:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- 5h présentation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Zanone Jérémie:
 </t>
@@ -431,15 +423,42 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- 5h présentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Zanone Jérémie:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>- 4h présentation</t>
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -544,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="0" shapeId="0">
+    <comment ref="P6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,6 +584,637 @@
           </rPr>
           <t xml:space="preserve">
 Présentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1h : trouver un projet
+1h : discussion avec les collègues
+2h : début du cahier des charges
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1h : changement de projet
+3h : rédaction du cahier des charges
+2h : relecture </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>6h : Génération d’un PDF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">6h : génération de statistiques </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5h : intégration des statistiques dans le pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5h : intégration de la base de donnée dans le pdf
+1h : commentaires</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>2h : tests
+4h : rédaction du rapport</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5h30 : intégration du PDF dans le projet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5h30 : intégration du PDF dans le projet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>3h : Nettoyage du code, commentaires
+3h : gestion des erreurs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>6h : semaine tampon, aide aux collègues</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">2h : nettoyage
+2h : aide aux collègues
+2h : génération de l’exécutable </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">6h : rédaction du rapport </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5h : relecture, correction du rapport</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5h30 : préparation / discussion avec les collègues pour la présentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5h30 : préparation / présentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Recherche de sujet(1,5h)
+discussion(1,5h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:
+modification CC(2h)
+nouvelle idée sujet(3h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>recherche conception(3h)
+Gantt ( 2h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>conception des points avec coordonne avec carte (4h)
+mise en place des classes java (1h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>analyse des tuiles avec coordonnées (3h)
+ecriture de code(2h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>travail sur les pins 
+et leur apparition sur la carte (5h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ajout de la carte avec foonctionnalite et tests (7h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>aide la resolution probleme interface graphique et carte (6h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>travail sur le dossier (7h)
+detail de toutes etapes faites pour la carte</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>relecture code et amélioration ( 5h)
+aide aux autres ( 2h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>lecture dossier (2h)
+relecture autres parties code (3h)
+tests sur l'app (2h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>tests finaux sur l'application (5h)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>4h discussion 
+1h de travail de recherche</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Auteur:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>travail sur la presentation 5h</t>
         </r>
       </text>
     </comment>
@@ -575,49 +1225,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
-    <t xml:space="preserve">Contraintes </t>
-  </si>
-  <si>
-    <t>540h / 16 = 33h de travail par semaine pour l'ensemble des développeurs</t>
-  </si>
-  <si>
-    <t>33h / 6 = 5.5h de travail par semaine et par développeur</t>
-  </si>
-  <si>
-    <t>Développeur 3</t>
-  </si>
-  <si>
-    <t>Développeur 4</t>
-  </si>
-  <si>
-    <t>Développeur 5</t>
-  </si>
-  <si>
-    <t>Développeur 6</t>
-  </si>
-  <si>
-    <t>90 heures de travail par développeur sur l'ensemble des 16 semaines</t>
-  </si>
-  <si>
-    <t>6 développeurs x 90h = 540h au total</t>
-  </si>
-  <si>
     <t>Répartition des heures par développeur et par semaine</t>
   </si>
   <si>
-    <t>6 membres</t>
-  </si>
-  <si>
-    <t>5 membres</t>
-  </si>
-  <si>
-    <t>5 développeurs x 90h = 450h au total</t>
-  </si>
-  <si>
-    <t>450h / 16 = 28h de travail par semaine pour l'ensemble des développeurs</t>
-  </si>
-  <si>
-    <t>28h / 5 = 5.5h de travail par semaine et par développeur</t>
+    <t>Groupe 6</t>
   </si>
   <si>
     <t>S1</t>
@@ -674,7 +1285,46 @@
     <t>Zanone Jérémie</t>
   </si>
   <si>
-    <t>Groupe JE sais pas</t>
+    <t>Développeur 3</t>
+  </si>
+  <si>
+    <t>Développeur 4</t>
+  </si>
+  <si>
+    <t>Luana Martelli</t>
+  </si>
+  <si>
+    <t>Myszkorowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contraintes </t>
+  </si>
+  <si>
+    <t>90 heures de travail par développeur sur l'ensemble des 16 semaines</t>
+  </si>
+  <si>
+    <t>6 membres</t>
+  </si>
+  <si>
+    <t>6 développeurs x 90h = 540h au total</t>
+  </si>
+  <si>
+    <t>540h / 16 = 33h de travail par semaine pour l'ensemble des développeurs</t>
+  </si>
+  <si>
+    <t>33h / 6 = 5.5h de travail par semaine et par développeur</t>
+  </si>
+  <si>
+    <t>5 membres</t>
+  </si>
+  <si>
+    <t>5 développeurs x 90h = 450h au total</t>
+  </si>
+  <si>
+    <t>450h / 16 = 28h de travail par semaine pour l'ensemble des développeurs</t>
+  </si>
+  <si>
+    <t>28h / 5 = 5.5h de travail par semaine et par développeur</t>
   </si>
   <si>
     <t>Loan Lassalle</t>
@@ -684,13 +1334,36 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -701,26 +1374,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -737,7 +1397,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -751,16 +1411,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,26 +1428,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -795,46 +1440,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -844,6 +1477,2075 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1120" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1118" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1116" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1114" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1112" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1110" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1108" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1106" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1104" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1102" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1100" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1098" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1096" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1094" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1092" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1090" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1088" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1086" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1084" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,437 +3813,536 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="7" customWidth="1"/>
-    <col min="2" max="17" width="5.28515625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1"/>
+    <col min="2" max="17" width="5.42578125" style="2"/>
+    <col min="18" max="18" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="P4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="Q4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10">
         <v>2.5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="10">
         <v>5.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="10">
         <v>5.5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <v>6.5</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="10">
         <v>5.5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="10">
         <v>5.5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="10">
         <v>5.5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="10">
         <v>5.5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="10">
         <v>6</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="10">
         <v>5</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="10">
         <v>7</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="10">
         <v>8</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="10">
         <v>8</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="10">
         <v>5</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="10">
         <v>5</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="10">
         <v>4</v>
       </c>
-      <c r="R5" s="4">
-        <f>SUM(B5:Q5)</f>
+      <c r="R5" s="7">
+        <f t="shared" ref="R5:R10" si="0">SUM(B5:Q5)</f>
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="10">
         <v>5.5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="10">
         <v>6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="10">
         <v>6</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="10">
         <v>7</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="10">
         <v>7</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="10">
         <v>7</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="10">
         <v>7</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="10">
         <v>5.5</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="10">
         <v>5.5</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="10">
         <v>5.5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="10">
         <v>5.5</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="10">
         <v>5.5</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="10">
         <v>5</v>
       </c>
-      <c r="R6" s="4">
-        <f t="shared" ref="R6:R10" si="0">SUM(B6:Q6)</f>
+      <c r="R6" s="14">
+        <f t="shared" ref="R6" si="1">SUM(B6:Q6)</f>
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="4">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="4">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="G9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="4">
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="J9" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6</v>
+      </c>
+      <c r="M9" s="10">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="R9" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10">
+        <v>7</v>
+      </c>
+      <c r="J10" s="10">
+        <v>7</v>
+      </c>
+      <c r="K10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="4">
+      <c r="L10" s="10">
+        <v>7</v>
+      </c>
+      <c r="M10" s="10">
+        <v>7</v>
+      </c>
+      <c r="N10" s="10">
+        <v>7</v>
+      </c>
+      <c r="O10" s="10">
+        <v>5</v>
+      </c>
+      <c r="P10" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>5</v>
+      </c>
+      <c r="R10" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4">
-        <f>SUM(B5:B10)</f>
-        <v>28.5</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:Q11" si="1">SUM(C5:C10)</f>
-        <v>8.5</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R11" s="12">
-        <f>SUM(R5:R10)</f>
-        <v>203</v>
-      </c>
+    <row r="11" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" ref="B11:R11" si="2">SUM(B5:B10)</f>
+        <v>23.5</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>21.5</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="2"/>
+        <v>20.5</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>7</v>
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>8</v>
+      <c r="A14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>1</v>
+      <c r="A15"/>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>12</v>
+      <c r="A19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>13</v>
+      <c r="B20" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>14</v>
+      <c r="B21" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Administratif/Répartition_heures.xlsx
+++ b/Administratif/Répartition_heures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateurs\Lassalle Loan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateurs\Lassalle Loan\Cloud Station\Documents\Etudes\HEIG\2ième Année Bachelor (2016-2017)\2ième Semestre\PRO\projetHeig\Administratif\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -557,7 +557,7 @@
           </rPr>
           <t xml:space="preserve">
 Intégration au projet
-Ajout des fonctionnalité supplémentaires
+Ajout des fonctionnalités supplémentaires
 Correction des problèmes
 Rapport</t>
         </r>
@@ -3814,7 +3814,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Administratif/Répartition_heures.xlsx
+++ b/Administratif/Répartition_heures.xlsx
@@ -27,6 +27,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
+    <author>Lassalle Loan</author>
     <author>Auteur</author>
   </authors>
   <commentList>
@@ -458,7 +459,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1" shapeId="0">
+    <comment ref="B6" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lassalle Loan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Recherche de sujets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="1" shapeId="0">
+    <comment ref="E6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="1" shapeId="0">
+    <comment ref="H6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="1" shapeId="0">
+    <comment ref="L6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="1" shapeId="0">
+    <comment ref="P6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3814,7 +3839,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Administratif/Répartition_heures.xlsx
+++ b/Administratif/Répartition_heures.xlsx
@@ -29,6 +29,7 @@
     <author/>
     <author>Lassalle Loan</author>
     <author>Auteur</author>
+    <author>camilo</author>
   </authors>
   <commentList>
     <comment ref="B5" authorId="0" shapeId="0">
@@ -609,6 +610,401 @@
           </rPr>
           <t xml:space="preserve">
 Présentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+mise en place groupes, mise en place workspace git, discussuion sujet et choix gestionnaire mdp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+recherche second sujet
+sessions de crise</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+cahier des charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4 fct. Pdf et génération de fichiers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pdf 2h
+base de donnée 4h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+base de donnée 2h
+GUI 4h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+rapport 3h
+pdf 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GUI 4h
+documentation 2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+tests pdf 3h
+GUI 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mise en cummun 3h
+documentation 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+documentation
+rapport 3h
+mise en commun 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+tests 3h
+debug 3h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+rapport et documentation 4h
+tests 2h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mise en forme rapport et documentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+préparation présentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>camilo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+présentation, répétition, présentation</t>
         </r>
       </text>
     </comment>
@@ -1359,7 +1755,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1411,6 +1807,27 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1453,7 +1870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1485,6 +1902,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4161,7 +4581,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4415,26 +4835,56 @@
         <v>34</v>
       </c>
       <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10">
+        <v>6</v>
+      </c>
+      <c r="G8" s="10">
+        <v>6</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6</v>
+      </c>
+      <c r="I8" s="10">
+        <v>6</v>
+      </c>
+      <c r="J8" s="10">
+        <v>6</v>
+      </c>
+      <c r="K8" s="10">
+        <v>6</v>
+      </c>
+      <c r="L8" s="10">
+        <v>6</v>
+      </c>
+      <c r="M8" s="10">
+        <v>6</v>
+      </c>
+      <c r="N8" s="10">
+        <v>6</v>
+      </c>
+      <c r="O8" s="10">
+        <v>6</v>
+      </c>
+      <c r="P8" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>6</v>
+      </c>
       <c r="R8" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -4557,71 +5007,71 @@
       </c>
       <c r="B11" s="7">
         <f t="shared" ref="B11:R11" si="2">SUM(B5:B10)</f>
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="2"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>27.5</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="2"/>
-        <v>21.5</v>
+        <v>27.5</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>22.5</v>
+        <v>28.5</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>31.5</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>31.5</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="O11" s="7">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>26.5</v>
       </c>
       <c r="P11" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="7">
         <f t="shared" si="2"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
       <c r="R11" s="11">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -4688,8 +5138,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Administratif/Répartition_heures.xlsx
+++ b/Administratif/Répartition_heures.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateurs\Lassalle Loan\Cloud Station\Documents\Etudes\HEIG\2ième Année Bachelor (2016-2017)\2ième Semestre\PRO\projetHeig\Administratif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEIG4semestre\PRO\Projet\projetHeig\Administratif\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8250" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8256" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,6 +29,7 @@
     <author/>
     <author>Lassalle Loan</author>
     <author>Auteur</author>
+    <author>wojtek myszkorowski</author>
   </authors>
   <commentList>
     <comment ref="B5" authorId="0" shapeId="0">
@@ -609,6 +610,402 @@
           </rPr>
           <t xml:space="preserve">
 Présentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-recherche de sujet et disscusion de groupe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-recherche exemples
+-mise en place du github
+-redaction Readme
+-canevas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:
+-changement de sujet
+-debut interface Graphique</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-avance interface graphique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-avance interface graphque, page principale
+-maintenance github</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-finalisation page principale graphique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-communication avec BD
+-apprentissage java pour BD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-continuation page principale avec communication BD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-gestion interface graphique avec la carte
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+page supplementaire
+de l'interface graphique (ajouts des evenements des elements)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-merge des fonctionnalitées</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:
+-merge des fonctionnalitées</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+tests de l'application</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-finalisation des derniers details de l'application
+-lecture du dossier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+préparation de la presentation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tano Iannetta:
+préparation de la presentation.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1313,9 +1710,6 @@
     <t>Développeur 3</t>
   </si>
   <si>
-    <t>Développeur 4</t>
-  </si>
-  <si>
     <t>Luana Martelli</t>
   </si>
   <si>
@@ -1353,6 +1747,9 @@
   </si>
   <si>
     <t>Loan Lassalle</t>
+  </si>
+  <si>
+    <t>Tano Iannetta</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1888,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1521,7 +1946,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1120" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1120" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1564,7 +1995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1118" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1118" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1607,7 +2044,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1116" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1116" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1650,7 +2093,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1114" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1114" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1693,7 +2142,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1112" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1112" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1736,7 +2191,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1110" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1110" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1779,7 +2240,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1108" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1108" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1822,7 +2289,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1106" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1106" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1865,7 +2338,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1104" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1104" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1908,7 +2387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1102" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1102" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1951,7 +2436,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1100" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1100" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1994,7 +2485,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1098" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1098" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2037,7 +2534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1096" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1096" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2080,7 +2583,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1094" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1094" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2123,7 +2632,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1092" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1092" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2166,7 +2681,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1090" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1090" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2209,7 +2730,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1088" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1088" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2252,7 +2779,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1086" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1086" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2295,7 +2828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1084" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1084" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2338,7 +2877,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2381,7 +2926,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2424,7 +2975,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2467,7 +3024,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2510,7 +3073,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2553,7 +3122,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2596,7 +3171,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2639,7 +3220,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2682,7 +3269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2725,7 +3318,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2768,7 +3367,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2811,7 +3416,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2854,7 +3465,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2897,7 +3514,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2940,7 +3563,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2983,7 +3612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3026,7 +3661,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3069,7 +3710,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3112,7 +3759,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3155,7 +3808,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3198,7 +3857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3241,7 +3906,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3284,7 +3955,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3327,7 +4004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3370,7 +4053,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3413,7 +4102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3456,7 +4151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3499,7 +4200,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3542,7 +4249,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3839,17 +4552,17 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1"/>
-    <col min="2" max="17" width="5.42578125" style="2"/>
-    <col min="18" max="18" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="15.33203125" style="1"/>
+    <col min="2" max="17" width="5.44140625" style="2"/>
+    <col min="18" max="18" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3871,7 +4584,7 @@
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3893,7 +4606,7 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>2</v>
@@ -3947,7 +4660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -4004,9 +4717,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="10">
         <v>3</v>
@@ -4061,7 +4774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -4088,36 +4801,66 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="F8" s="10">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10">
+        <v>7</v>
+      </c>
+      <c r="H8" s="10">
+        <v>8</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10">
+        <v>8</v>
+      </c>
+      <c r="K8" s="10">
+        <v>4</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5</v>
+      </c>
+      <c r="M8" s="10">
+        <v>5</v>
+      </c>
+      <c r="N8" s="10">
+        <v>5</v>
+      </c>
+      <c r="O8" s="10">
+        <v>6</v>
+      </c>
+      <c r="P8" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>4</v>
+      </c>
       <c r="R8" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -4172,9 +4915,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="10">
         <v>3</v>
@@ -4229,139 +4972,139 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7">
         <f t="shared" ref="B11:R11" si="2">SUM(B5:B10)</f>
-        <v>23.5</v>
+        <v>21.5</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="2"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>28.5</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="2"/>
-        <v>21.5</v>
+        <v>30.5</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>22.5</v>
+        <v>29.5</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>31.5</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>33.5</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>30.5</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>31.5</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>31.5</v>
       </c>
       <c r="O11" s="7">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>26.5</v>
       </c>
       <c r="P11" s="7">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7">
         <f t="shared" si="2"/>
-        <v>19.5</v>
+        <v>23.5</v>
       </c>
       <c r="R11" s="11">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
